--- a/output/google_maps_data_Transportasi_Kulon_Progo.xlsx
+++ b/output/google_maps_data_Transportasi_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -500,22 +495,21 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-7.864822</v>
+      </c>
       <c r="G2" t="n">
-        <v>-7.864822</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.151275</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Terminal+Wates+(%EA%A6%A0%EA%A6%BC%EA%A6%82%EA%A6%A9%EA%A6%B6%EA%A6%A4%EA%A6%AD%EA%A7%80%EA%A6%AE%EA%A6%A0%EA%A6%BC%EA%A6%B1%EA%A7%80)/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb375b5fbb4f:0x54f2ba1fcbdc3ac3!8m2!3d-7.8648217!4d110.1512747!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaGRXOTFjbEZSRUFF4AEA-gEECAAQPg!16s%2Fg%2F11c2pfkrsl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,25 +524,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>-7.864822</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.864822</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.151275</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terminal+Wates+(%EA%A6%A0%EA%A6%BC%EA%A6%82%EA%A6%A9%EA%A6%B6%EA%A6%A4%EA%A6%AD%EA%A7%80%EA%A6%AE%EA%A6%A0%EA%A6%BC%EA%A6%B1%EA%A7%80)/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb375b5fbb4f:0x54f2ba1fcbdc3ac3!8m2!3d-7.8648217!4d110.1512747!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaGRXOTFjbEZSRUFF4AEA-gEECAAQPg!16s%2Fg%2F11c2pfkrsl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terminal+Wates+(%EA%A6%A0%EA%A6%BC%EA%A6%82%EA%A6%A9%EA%A6%B6%EA%A6%A4%EA%A6%AD%EA%A7%80%EA%A6%AE%EA%A6%A0%EA%A6%BC%EA%A6%B1%EA%A7%80)/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb375b5fbb4f:0x54f2ba1fcbdc3ac3!8m2!3d-7.8648217!4d110.1512747!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaGRXOTFjbEZSRUFF4AEA-gEECAAQPg!16s%2Fg%2F11c2pfkrsl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -571,25 +564,24 @@
           <t>0823-1188-1638</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>-7.864115</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.864115</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.162258</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SHUTTLE+YIA+by+Poetra+ndeso+trans/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbe59ec49ddf:0x84f65e89ccc4c241!8m2!3d-7.864115!4d110.162258!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOS2JUUlVTSEJCUlJBQuABAPoBBAgAEDY!16s%2Fg%2F11l8gnzg7p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SHUTTLE+YIA+by+Poetra+ndeso+trans/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbe59ec49ddf:0x84f65e89ccc4c241!8m2!3d-7.864115!4d110.162258!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOS2JUUlVTSEJCUlJBQuABAPoBBAgAEDY!16s%2Fg%2F11l8gnzg7p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -612,25 +604,24 @@
           <t>0857-4311-6577</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.81276</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.81276</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.166052</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rian+Tour+%26+Transport+Jogja/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afa98e0dc7473:0x5978afa28ece369f!8m2!3d-7.8127597!4d110.1660518!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11g81fs4ql?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rian+Tour+%26+Transport+Jogja/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afa98e0dc7473:0x5978afa28ece369f!8m2!3d-7.8127597!4d110.1660518!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11g81fs4ql?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -653,25 +644,24 @@
           <t>0822-7939-0789</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>-7.886195</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.886195</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.064928</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Transportasi+Bandara+YIA+Yogyakarta+Kulonprogo+-+Layanan+Antar+Jemput+Bandara+Jogja+YIA+*Garda+Transport+)/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae5001ede4ef5:0x4842c3cfe972d826!8m2!3d-7.8861951!4d110.0649275!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERY2FyX3JlbnRhbF9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTklNRWsyVWpsQlJSQULgAQD6AQQIABA-!16s%2Fg%2F11lf7dg8cb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Transportasi+Bandara+YIA+Yogyakarta+Kulonprogo+-+Layanan+Antar+Jemput+Bandara+Jogja+YIA+*Garda+Transport+)/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae5001ede4ef5:0x4842c3cfe972d826!8m2!3d-7.8861951!4d110.0649275!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERY2FyX3JlbnRhbF9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTklNRWsyVWpsQlJSQULgAQD6AQQIABA-!16s%2Fg%2F11lf7dg8cb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -694,25 +684,24 @@
           <t>0821-2456-2339</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.85267</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.85267</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.201743</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/All+Transportasi/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbc4d931e39f:0x30f8e8fc7bda31db!8m2!3d-7.8526696!4d110.2017431!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11kq0php_y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/All+Transportasi/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbc4d931e39f:0x30f8e8fc7bda31db!8m2!3d-7.8526696!4d110.2017431!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11kq0php_y?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -735,25 +724,24 @@
           <t>0852-9244-7205</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>-7.850646</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.850646</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.135328</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CAHAYA+TRANS/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae500179b111d:0xc39a9f75b56f4dd5!8m2!3d-7.8506457!4d110.1353283!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11y47v1tnm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/CAHAYA+TRANS/@-7.8648217,109.8628836,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae500179b111d:0xc39a9f75b56f4dd5!8m2!3d-7.8506457!4d110.1353283!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11y47v1tnm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -780,25 +768,24 @@
           <t>0821-3451-0449</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>-7.807936</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.807936</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.32649</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jemput+antar+bandara+YIA+kulonprogo+yogyakarta+(+Drop+off+to+and+pickup+from+YIA+airport)/@-7.8079358,110.0380992,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7af9c9814c34c3:0xff9c59e5c7daa70d!8m2!3d-7.8079358!4d110.3264903!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEXYWlycG9ydF9zaHV0dGxlX3NlcnZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVOalJYTUZwM0VBReABAPoBBAgAEDk!16s%2Fg%2F11fsp22v7x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jemput+antar+bandara+YIA+kulonprogo+yogyakarta+(+Drop+off+to+and+pickup+from+YIA+airport)/@-7.8079358,110.0380992,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7af9c9814c34c3:0xff9c59e5c7daa70d!8m2!3d-7.8079358!4d110.3264903!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEXYWlycG9ydF9zaHV0dGxlX3NlcnZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVOalJYTUZwM0VBReABAPoBBAgAEDk!16s%2Fg%2F11fsp22v7x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -817,25 +804,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>-7.826723</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.826723</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.169358</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Cahaya+Trans/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb000979b223:0x835b03ad29cf0884!8m2!3d-7.8267234!4d110.1693582!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11wv4k5psf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Cahaya+Trans/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb000979b223:0x835b03ad29cf0884!8m2!3d-7.8267234!4d110.1693582!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11wv4k5psf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -858,25 +844,24 @@
           <t>0822-2660-2604</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.847835</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.847835</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.148435</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/LOKAHITA+TRANSPORT/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbb082ff98b7:0xc540fc36a192cb36!8m2!3d-7.847835!4d110.148435!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11trf7z6ry?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/LOKAHITA+TRANSPORT/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbb082ff98b7:0xc540fc36a192cb36!8m2!3d-7.847835!4d110.148435!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11trf7z6ry?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -899,25 +884,24 @@
           <t>0852-9036-8065</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.902261</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.902261</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.069877</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ANTAR+JEMPUT(airport+shuttle)+dan+SEWA+MOBIL(Rent+Car)+DEKAT+BANDARA+YIA+Kulon+Progo,+Yogyakarta/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae3cbd6852cd1:0xe0466404836eff4b!8m2!3d-7.9022615!4d110.0698769!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERY2FyX3JlbnRhbF9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjBhRGRoVm5WM1JSQULgAQD6AQQIABBF!16s%2Fg%2F11p4nxpz6z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ANTAR+JEMPUT(airport+shuttle)+dan+SEWA+MOBIL(Rent+Car)+DEKAT+BANDARA+YIA+Kulon+Progo,+Yogyakarta/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae3cbd6852cd1:0xe0466404836eff4b!8m2!3d-7.9022615!4d110.0698769!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERY2FyX3JlbnRhbF9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjBhRGRoVm5WM1JSQULgAQD6AQQIABBF!16s%2Fg%2F11p4nxpz6z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -940,25 +924,24 @@
           <t>0819-1288-1121</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>-7.843796</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.843796</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.217311</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yoga+transport%2Bcarteran+Yogyakarta+terdekat/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb97ca9fcc9f:0xaeb46078e28392d9!8m2!3d-7.8437955!4d110.2173105!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEIYWlyX3RheGngAQA!16s%2Fg%2F11l2z53tmp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yoga+transport%2Bcarteran+Yogyakarta+terdekat/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb97ca9fcc9f:0xaeb46078e28392d9!8m2!3d-7.8437955!4d110.2173105!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEIYWlyX3RheGngAQA!16s%2Fg%2F11l2z53tmp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -981,25 +964,24 @@
           <t>0823-3357-7128</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>-7.880109</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.880109</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.07885</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sewa+bus+dan+ELF+Bandara+YIA/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae54952289fe5:0x7c974dd7b5642119!8m2!3d-7.8801091!4d110.0788501!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRdGREWjJPV2wzUlJBQuABAPoBBAgAEA4!16s%2Fg%2F11tj67jkzf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sewa+bus+dan+ELF+Bandara+YIA/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae54952289fe5:0x7c974dd7b5642119!8m2!3d-7.8801091!4d110.0788501!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRdGREWjJPV2wzUlJBQuABAPoBBAgAEA4!16s%2Fg%2F11tj67jkzf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1026,25 +1008,24 @@
           <t>(0274) 4606072</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.6</v>
+        <v>-7.903869</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.903869</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.057322</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bandar+Udara+Internasional+Yogyakarta/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae510af9cb49f:0x53f3289baac373ed!8m2!3d-7.903869!4d110.0573216!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEVaW50ZXJuYXRpb25hbF9haXJwb3J0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF5ZHpWcFVWUjNFQUXgAQD6AQQIaRBB!16s%2Fg%2F11c6dcrb3p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bandar+Udara+Internasional+Yogyakarta/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae510af9cb49f:0x53f3289baac373ed!8m2!3d-7.903869!4d110.0573216!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEVaW50ZXJuYXRpb25hbF9haXJwb3J0mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF5ZHpWcFVWUjNFQUXgAQD6AQQIaRBB!16s%2Fg%2F11c6dcrb3p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -1067,25 +1048,24 @@
           <t>0823-2112-2031</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>-7.824896</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.824896</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.158147</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudel+Bhayangkara+Trans/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbd1953c7897:0xd0c1fe4e976f1cad!8m2!3d-7.8248962!4d110.1581472!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOb2VYTnlVVGhSUlJBQuABAPoBBAgAECY!16s%2Fg%2F11nxs3npf3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudel+Bhayangkara+Trans/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbd1953c7897:0xd0c1fe4e976f1cad!8m2!3d-7.8248962!4d110.1581472!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOb2VYTnlVVGhSUlJBQuABAPoBBAgAECY!16s%2Fg%2F11nxs3npf3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1108,25 +1088,24 @@
           <t>0897-5081-919</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>-7.855037</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.855037</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.173996</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wijaya+Barokah+Transport/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb4ecbfbb1f7:0x822694fe6d4188a2!8m2!3d-7.8550372!4d110.1739962!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11rr8hk3m5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wijaya+Barokah+Transport/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb4ecbfbb1f7:0x822694fe6d4188a2!8m2!3d-7.8550372!4d110.1739962!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11rr8hk3m5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1145,25 +1124,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>-7.838608</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.838608</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.17381</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+Derwolo/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afae51ad4acab:0x29df7a13a84aec1!8m2!3d-7.8386083!4d110.1738103!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEGYnJpZGdlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYZW5BM01EWm5SUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11g7z9rvp4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+Derwolo/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afae51ad4acab:0x29df7a13a84aec1!8m2!3d-7.8386083!4d110.1738103!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEGYnJpZGdlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYZW5BM01EWm5SUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11g7z9rvp4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1186,25 +1164,24 @@
           <t>0822-2322-0543</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>-7.869109</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.869109</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.061669</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/EL+Trans+%22Antar+Jemput+Bandara+YIA%22/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae5f2e1c80f61:0xf826ab53ca8814f!8m2!3d-7.8691087!4d110.0616689!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11wjdr6xkc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/EL+Trans+%22Antar+Jemput+Bandara+YIA%22/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae5f2e1c80f61:0xf826ab53ca8814f!8m2!3d-7.8691087!4d110.0616689!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11wjdr6xkc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1227,25 +1204,24 @@
           <t>0856-4057-0773</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>-7.840024</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.840024</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.150701</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Garasi+Ellsa+Transport+Bus+Pariwisata/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbd24f9db743:0x668873c0cab6d6a5!8m2!3d-7.8400245!4d110.1507011!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgELYnVzX2NoYXJ0ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjZNM1F0Y2psQlJSQULgAQD6AQQIABAh!16s%2Fg%2F11pxwfgt6n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Garasi+Ellsa+Transport+Bus+Pariwisata/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbd24f9db743:0x668873c0cab6d6a5!8m2!3d-7.8400245!4d110.1507011!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgELYnVzX2NoYXJ0ZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjZNM1F0Y2psQlJSQULgAQD6AQQIABAh!16s%2Fg%2F11pxwfgt6n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1268,25 +1244,24 @@
           <t>0812-2578-887</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.9</v>
+        <v>-7.841227</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.841227</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.179645</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rahmat+Tour+%26+Transport/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afafc7783765d:0xe95aa4817faeb824!8m2!3d-7.8412266!4d110.179645!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaWVra3lPV2xCUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11gfnh2jgp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rahmat+Tour+%26+Transport/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afafc7783765d:0xe95aa4817faeb824!8m2!3d-7.8412266!4d110.179645!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaWVra3lPV2xCUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11gfnh2jgp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1309,25 +1284,24 @@
           <t>0822-2003-9873</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.7</v>
+        <v>-7.864528</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.864528</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.151294</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/agen+bus+TIVIDI-+AGRAMAS+-+GUNUNG+HARTA+terminal+wates/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afba052e2ccdb:0x42e674bcf1b0db62!8m2!3d-7.864528!4d110.1512937!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11tfln65yl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/agen+bus+TIVIDI-+AGRAMAS+-+GUNUNG+HARTA+terminal+wates/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afba052e2ccdb:0x42e674bcf1b0db62!8m2!3d-7.864528!4d110.1512937!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11tfln65yl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1350,25 +1324,24 @@
           <t>0878-6336-3298</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>-7.896274</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.896274</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.062262</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Trasportasi+Bandara+YIA/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae3f9c64b99bb:0xd1a441b081cf2849!8m2!3d-7.8962743!4d110.0622623!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUWNVbGZkSFJSUlJBQuABAPoBBAgAEBg!16s%2Fg%2F11v3mh9bjr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Trasportasi+Bandara+YIA/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae3f9c64b99bb:0xd1a441b081cf2849!8m2!3d-7.8962743!4d110.0622623!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUWNVbGZkSFJSUlJBQuABAPoBBAgAEBg!16s%2Fg%2F11v3mh9bjr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1391,25 +1364,24 @@
           <t>0899-1472-005</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.2</v>
+        <v>-7.863954</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.863954</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.161667</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MZ+TransportasiMU+Jogja/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb3e668408cd:0x52e6cc99f57b459a!8m2!3d-7.8639537!4d110.1616673!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11f3b388rp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MZ+TransportasiMU+Jogja/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb3e668408cd:0x52e6cc99f57b459a!8m2!3d-7.8639537!4d110.1616673!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11f3b388rp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1428,25 +1400,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.4</v>
+        <v>-7.859943</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.859943</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.157216</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Stasiun+Kereta+Bandara+Wates/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb87098d072f:0xbe06cfd047e4d580!8m2!3d-7.8599433!4d110.1572155!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaWVEUk1TRGRCUlJBQuABAPoBBAgAEDg!16s%2Fg%2F11s93k0v1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Stasiun+Kereta+Bandara+Wates/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb87098d072f:0xbe06cfd047e4d580!8m2!3d-7.8599433!4d110.1572155!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSaWVEUk1TRGRCUlJBQuABAPoBBAgAEDg!16s%2Fg%2F11s93k0v1m?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -1469,25 +1440,24 @@
           <t>(0274) 773637</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>-7.865712</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.865712</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.157921</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%22+Bandung+Express%22/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb38d59ea8d7:0x64325679559b6b7d!8m2!3d-7.865712!4d110.157921!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11b6xg0pxm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/%22+Bandung+Express%22/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb38d59ea8d7:0x64325679559b6b7d!8m2!3d-7.865712!4d110.157921!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11b6xg0pxm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1514,25 +1484,24 @@
           <t>0851-6690-1669</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.2</v>
+        <v>-7.865447</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.865447</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.155285</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PO.+Rosalia+Indah+Wates/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb39b9fcbb5f:0x40f033f046d384a5!8m2!3d-7.8654467!4d110.1552849!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERYnVzX3RpY2tldF9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFOblJJTUROQlJSQULgAQD6AQQIABAr!16s%2Fg%2F1pzpr6200?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PO.+Rosalia+Indah+Wates/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb39b9fcbb5f:0x40f033f046d384a5!8m2!3d-7.8654467!4d110.1552849!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERYnVzX3RpY2tldF9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFOblJJTUROQlJSQULgAQD6AQQIABAr!16s%2Fg%2F1pzpr6200?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1551,25 +1520,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.1</v>
+        <v>-7.864455</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.864455</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.151215</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Terminal+Bus+Wates/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb3743a20f81:0x5febff9934a987d9!8m2!3d-7.864455!4d110.151215!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgELYnVzX3N0YXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJkV1ZQUTFaQkVBReABAPoBBAgAEDc!16s%2Fg%2F11b75g4d3q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Terminal+Bus+Wates/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb3743a20f81:0x5febff9934a987d9!8m2!3d-7.864455!4d110.151215!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgELYnVzX3N0YXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJkV1ZQUTFaQkVBReABAPoBBAgAEDc!16s%2Fg%2F11b75g4d3q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1592,25 +1560,24 @@
           <t>0856-0103-6744</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.803993</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.803993</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.193187</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Travel+%26+Tour+Ismandri/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb005f4b1ecf:0x65c2ba0fb6dffa8f!8m2!3d-7.8039932!4d110.1931873!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMk5sa3lUSFJCUlJBQuABAPoBBAgAEEk!16s%2Fg%2F11lych9rn5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Travel+%26+Tour+Ismandri/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb005f4b1ecf:0x65c2ba0fb6dffa8f!8m2!3d-7.8039932!4d110.1931873!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMk5sa3lUSFJCUlJBQuABAPoBBAgAEEk!16s%2Fg%2F11lych9rn5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1633,25 +1600,24 @@
           <t>0813-9006-4680</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.3</v>
+        <v>-7.864414</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.864414</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.151055</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Agen+Bus+Wates+PO.+Sumber+Alam/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb3741dc0577:0x853d1349f5cefda6!8m2!3d-7.8644144!4d110.151055!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERYnVzX3RpY2tldF9hZ2VuY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlNlRGQ2VWxSQkVBReABAPoBBAgAEA4!16s%2Fg%2F1pzv8zzhg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Agen+Bus+Wates+PO.+Sumber+Alam/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb3741dc0577:0x853d1349f5cefda6!8m2!3d-7.8644144!4d110.151055!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERYnVzX3RpY2tldF9hZ2VuY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlNlRGQ2VWxSQkVBReABAPoBBAgAEA4!16s%2Fg%2F1pzv8zzhg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1670,25 +1636,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>-7.828099</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.828099</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.169312</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Deni+Rahman/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb4c64631147:0x2c6cd472c760ec5d!8m2!3d-7.8280985!4d110.1693119!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11rxtxlzdy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Deni+Rahman/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb4c64631147:0x2c6cd472c760ec5d!8m2!3d-7.8280985!4d110.1693119!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11rxtxlzdy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1707,25 +1672,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.832753</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.832753</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.172081</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Serang+Sound+System/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbb51ac54c83:0x846724b68b04b6a1!8m2!3d-7.8327529!4d110.172081!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOc2FtVXpYM1JSUlJBQuABAPoBBAgAEBo!16s%2Fg%2F11y1_17f85?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Serang+Sound+System/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbb51ac54c83:0x846724b68b04b6a1!8m2!3d-7.8327529!4d110.172081!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOc2FtVXpYM1JSUlJBQuABAPoBBAgAEBo!16s%2Fg%2F11y1_17f85?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1745,22 +1709,21 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-7.836098</v>
+      </c>
       <c r="G33" t="n">
-        <v>-7.836098</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.176438</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertigaan+Derwolo+simpangtiga/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb375773f6d7:0x8c8000710435af97!8m2!3d-7.836098!4d110.1764379!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11q9892z_8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1775,25 +1738,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>-7.859701</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.859701</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.158154</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Stasiun+Wates/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb89c7dac70b:0x618e212d93058180!8m2!3d-7.8597012!4d110.1581539!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgELdHJhaW5fZGVwb3SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm9OMkY2WkdKbkVBReABAPoBBAgAED0!16s%2Fg%2F11j0qd0k9c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Stasiun+Wates/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb89c7dac70b:0x618e212d93058180!8m2!3d-7.8597012!4d110.1581539!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgELdHJhaW5fZGVwb3SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm9OMkY2WkdKbkVBReABAPoBBAgAED0!16s%2Fg%2F11j0qd0k9c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1820,25 +1782,24 @@
           <t>0811-8195-853</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.1</v>
+        <v>-7.864455</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.864455</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.151215</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Agen+Bus+PO.+Sinar+Jaya+(Wates)/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb37466dd11d:0x24928e5606bbce20!8m2!3d-7.864455!4d110.151215!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERYnVzX3RpY2tldF9hZ2VuY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlOa3BFVDFGUkVBReABAPoBBAhAED8!16s%2Fg%2F11b6srlfnn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Agen+Bus+PO.+Sinar+Jaya+(Wates)/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb37466dd11d:0x24928e5606bbce20!8m2!3d-7.864455!4d110.151215!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERYnVzX3RpY2tldF9hZ2VuY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlOa3BFVDFGUkVBReABAPoBBAhAED8!16s%2Fg%2F11b6srlfnn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1861,25 +1822,24 @@
           <t>0857-9903-0529</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>-7.863926</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.863926</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.151302</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PO+Raharja/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb374f854b13:0xe9255bcf65c77897!8m2!3d-7.8639256!4d110.1513015!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11b6swp0tj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PO+Raharja/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb374f854b13:0xe9255bcf65c77897!8m2!3d-7.8639256!4d110.1513015!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11b6swp0tj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1899,22 +1859,21 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-7.870778</v>
+      </c>
       <c r="G37" t="n">
-        <v>-7.870778</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.183431</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Yia+munir+transportasi/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb0c86fedb8b:0xa4d6e5f706a9058f!8m2!3d-7.8707775!4d110.1834309!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARdhaXJwb3J0X3NodXR0bGVfc2VydmljZeABAA!16s%2Fg%2F11ssjybbkr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1929,25 +1888,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.3</v>
+        <v>-7.835173</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.835173</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.170934</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+Serang/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afaef39ae5ce1:0xa65c0514636ef30d!8m2!3d-7.8351727!4d110.1709343!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEGYnJpZGdlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI2YW1KNVRuaDNSUkFC4AEA-gEECEYQPg!16s%2Fg%2F11g7z0pl0r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+Serang/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afaef39ae5ce1:0xa65c0514636ef30d!8m2!3d-7.8351727!4d110.1709343!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEGYnJpZGdlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVI2YW1KNVRuaDNSUkFC4AEA-gEECEYQPg!16s%2Fg%2F11g7z0pl0r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1974,25 +1932,24 @@
           <t>0822-4332-3088</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>-7.835935</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.835935</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.172321</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Borobudur+Yogyakarta+Tour+Driver/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbd9bb03a63d:0x289315194cc81c2e!8m2!3d-7.8359353!4d110.1723205!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11qbc4_0q1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Borobudur+Yogyakarta+Tour+Driver/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbd9bb03a63d:0x289315194cc81c2e!8m2!3d-7.8359353!4d110.1723205!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11qbc4_0q1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2012,22 +1969,21 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-7.866795</v>
+      </c>
       <c r="G40" t="n">
-        <v>-7.866795</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.17217</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/KESATRIAN/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb8ddac9b0eb:0x717cbbc5c1ad60c8!8m2!3d-7.8667947!4d110.1721698!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11sgj3ctj7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2050,25 +2006,24 @@
           <t>0811-8110-7936</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.7</v>
+        <v>-7.870274</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.870274</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.142821</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Indah+Logistik+Cargo+Kulon+Progo/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb8bb42a0c43:0x63e9afd75a1f4dfc!8m2!3d-7.870274!4d110.1428214!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXhlWFZRUlhOUlJSQULgAQD6AQQIABBC!16s%2Fg%2F11lg9zrml2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Indah+Logistik+Cargo+Kulon+Progo/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb8bb42a0c43:0x63e9afd75a1f4dfc!8m2!3d-7.870274!4d110.1428214!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXhlWFZRUlhOUlJSQULgAQD6AQQIABBC!16s%2Fg%2F11lg9zrml2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2088,22 +2043,21 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-7.841037</v>
+      </c>
       <c r="G42" t="n">
-        <v>-7.841037</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.163109</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BRIYAN+TRANS/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb23f1bf30b5:0x31ce3fca1a9d8018!8m2!3d-7.8410375!4d110.1631094!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11kk738k3r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2126,25 +2080,24 @@
           <t>0813-1347-0636</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>-7.843792</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.843792</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.192143</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/AKIRA+Tour+%26+Travel/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb58ecabe8a9:0x1ed484caf6fe8101!8m2!3d-7.8437916!4d110.1921432!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERY2FyX3JlbnRhbF9hZ2VuY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBOemxEYmxoQkVBReABAPoBBAgAECc!16s%2Fg%2F11t4_9lkh9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/AKIRA+Tour+%26+Travel/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb58ecabe8a9:0x1ed484caf6fe8101!8m2!3d-7.8437916!4d110.1921432!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERY2FyX3JlbnRhbF9hZ2VuY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBOemxEYmxoQkVBReABAPoBBAgAECc!16s%2Fg%2F11t4_9lkh9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2168,22 +2121,21 @@
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-7.810142</v>
+      </c>
       <c r="G44" t="n">
-        <v>-7.810142</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.189171</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Elviana+Transport+%26+farm/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afa7de107f6d5:0x49ac9149b3a5cc27!8m2!3d-7.8101416!4d110.1891707!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11f3tj6yhz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2199,22 +2151,21 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>-7.831613</v>
+      </c>
       <c r="G45" t="n">
-        <v>-7.831613</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.131586</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Lancar+jaya+trans/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae50025029ebd:0xd7bec81c4c98dac2!8m2!3d-7.8316133!4d110.131586!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11wfdyx7ny?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2229,25 +2180,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>-7.835189</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.835189</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.220306</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Agen+bus+Putra+Remaja+Sentolo/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbc698bf54bf:0x50e630636ec54714!8m2!3d-7.8351892!4d110.2203064!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERYnVzX3RpY2tldF9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXhhMTlIV1RkM1JSQULgAQD6AQQIABAn!16s%2Fg%2F11fr7f9c6p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Agen+bus+Putra+Remaja+Sentolo/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbc698bf54bf:0x50e630636ec54714!8m2!3d-7.8351892!4d110.2203064!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgERYnVzX3RpY2tldF9hZ2VuY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXhhMTlIV1RkM1JSQULgAQD6AQQIABAn!16s%2Fg%2F11fr7f9c6p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2266,25 +2216,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.84616</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.84616</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.176573</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gardu+Merah/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb1c6d6a3c47:0x3dc1953d899da96d!8m2!3d-7.8461598!4d110.1765733!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgELcGFya2luZ19sb3SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJiSEZNYmtGbkVBReABAPoBBAgAECk!16s%2Fg%2F11q948828b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gardu+Merah/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb1c6d6a3c47:0x3dc1953d899da96d!8m2!3d-7.8461598!4d110.1765733!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgELcGFya2luZ19sb3SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJiSEZNYmtGbkVBReABAPoBBAgAECk!16s%2Fg%2F11q948828b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2303,25 +2252,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>-7.811639</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.811639</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.105445</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/alfat/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae5002b128e21:0xb769ae528d69c566!8m2!3d-7.811639!4d110.1054448!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11wq0f3pdv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/alfat/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae5002b128e21:0xb769ae528d69c566!8m2!3d-7.811639!4d110.1054448!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11wq0f3pdv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2344,25 +2292,24 @@
           <t>0817-0422-110</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F49" t="n">
-        <v>3.4</v>
+        <v>-7.840995</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.840995</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.16597</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/AGRYD/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afae73cf9058b:0xc8a73478143e6094!8m2!3d-7.8409954!4d110.1659699!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11c325jm78?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/AGRYD/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afae73cf9058b:0xc8a73478143e6094!8m2!3d-7.8409954!4d110.1659699!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11c325jm78?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2389,25 +2336,24 @@
           <t>(0274) 773596</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.2</v>
+        <v>-7.859476</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.859476</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.158003</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PT.+Herona+Express/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae35773260e69:0x623ed4e8151a899e!8m2!3d-7.8594757!4d110.1580027!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2XgAQA!16s%2Fg%2F1pzqczckf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PT.+Herona+Express/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7ae35773260e69:0x623ed4e8151a899e!8m2!3d-7.8594757!4d110.1580027!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2XgAQA!16s%2Fg%2F1pzqczckf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2427,22 +2373,21 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>-7.863803</v>
+      </c>
       <c r="G51" t="n">
-        <v>-7.863803</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.152177</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/DIPAN/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb2aff20736f:0xdc68eebf296cb852!8m2!3d-7.8638029!4d110.1521773!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11pdwgcsgv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2462,22 +2407,21 @@
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>-7.808774</v>
+      </c>
       <c r="G52" t="n">
-        <v>-7.808774</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.165771</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+bakmie+5-8+pak+yono/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb818371a779:0xabcab8dd4ec361a3!8m2!3d-7.8087743!4d110.1657714!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SAQt0cmFpbl9kZXBvdOABAA!16s%2Fg%2F11fr7dkxm7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2496,25 +2440,24 @@
           <t>0822-4380-9297</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.785336</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.785336</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.194801</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CV.+Agung+Sukses+Jaya+Makmur/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7af1a8b2a296d5:0x986467088db7ec9b!8m2!3d-7.7853361!4d110.1948013!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSU1p6ZFhhRVJSRUFF4AEA-gEECAAQOg!16s%2Fg%2F11s5p2blhj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/CV.+Agung+Sukses+Jaya+Makmur/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7af1a8b2a296d5:0x986467088db7ec9b!8m2!3d-7.7853361!4d110.1948013!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSU1p6ZFhhRVJSRUFF4AEA-gEECAAQOg!16s%2Fg%2F11s5p2blhj?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2537,25 +2480,24 @@
           <t>0831-3179-9611</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.833593</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.833593</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.190893</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hafit+Home/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb6ffaf7ba03:0x51deca74baea190b!8m2!3d-7.8335932!4d110.190893!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgELcGFya2luZ19sb3SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUk1kbU5JYlUxM0VBReABAPoBBAgAECk!16s%2Fg%2F11kpd7_dc0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hafit+Home/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb6ffaf7ba03:0x51deca74baea190b!8m2!3d-7.8335932!4d110.190893!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgELcGFya2luZ19sb3SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUk1kbU5JYlUxM0VBReABAPoBBAgAECk!16s%2Fg%2F11kpd7_dc0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2574,25 +2516,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>-7.835202</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.835202</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.220371</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pool+Bus+Sumber+Alam/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb45ece10e47:0xb7027382013af0e9!8m2!3d-7.8352022!4d110.2203708!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SAQlidXNfZGVwb3TgAQA!16s%2Fg%2F11j33850np?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pool+Bus+Sumber+Alam/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb45ece10e47:0xb7027382013af0e9!8m2!3d-7.8352022!4d110.2203708!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SAQlidXNfZGVwb3TgAQA!16s%2Fg%2F11j33850np?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -2615,25 +2556,24 @@
           <t>0857-2930-5555</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>-7.835216</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.835216</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.220027</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/P.O+Murni+Jaya/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afa3083d42129:0x13de34f1794032c8!8m2!3d-7.835216!4d110.2200269!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11csqj4yj3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/P.O+Murni+Jaya/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afa3083d42129:0x13de34f1794032c8!8m2!3d-7.835216!4d110.2200269!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARFidXNfdGlja2V0X2FnZW5jeeABAA!16s%2Fg%2F11csqj4yj3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2653,22 +2593,21 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>-7.827888</v>
+      </c>
       <c r="G57" t="n">
-        <v>-7.827888</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.169515</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Garasi+RKJ/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb002b000f0f:0x303125c2e5eafee0!8m2!3d-7.8278876!4d110.1695154!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11wx5rhtkk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2687,25 +2626,24 @@
           <t>0857-0044-6676</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>5</v>
+      </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>-7.84512</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.84512</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.15358</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Heri+arsyanendra+(ojek+motor+online%2Fofline)/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbc271ae0bc5:0x65d1797801ab4dea!8m2!3d-7.8451203!4d110.1535797!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOU2RDMXBOamRuUlJBQuABAPoBBAgAEBE!16s%2Fg%2F11ts3rb148?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Heri+arsyanendra+(ojek+motor+online%2Fofline)/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afbc271ae0bc5:0x65d1797801ab4dea!8m2!3d-7.8451203!4d110.1535797!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEWdHJhbnNwb3J0YXRpb25fc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOU2RDMXBOamRuUlJBQuABAPoBBAgAEBE!16s%2Fg%2F11ts3rb148?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2729,22 +2667,21 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>-7.865454</v>
+      </c>
       <c r="G59" t="n">
-        <v>-7.865454</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.155284</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Agen+Rosalia+Indah+Wates+Kulon+Progo/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb4da0919d39:0x31fc436c5d258453!8m2!3d-7.8654539!4d110.155284!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11wvbb5002?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2759,25 +2696,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>2.7</v>
+      </c>
       <c r="F60" t="n">
-        <v>2.7</v>
+        <v>-7.794779</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.794779</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.172713</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Broiler+kali+keso/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7af117bfb85fc1:0x986b74c5a2dfbe68!8m2!3d-7.7947794!4d110.172713!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11h88g2l7z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Broiler+kali+keso/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7af117bfb85fc1:0x986b74c5a2dfbe68!8m2!3d-7.7947794!4d110.172713!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ2-SAQtwYXJraW5nX2xvdOABAA!16s%2Fg%2F11h88g2l7z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2796,25 +2732,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.4</v>
+        <v>-7.806989</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.806989</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.168761</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bendungan+Gayam/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb9395ce38f5:0xdd94a984c6080fe8!8m2!3d-7.8069894!4d110.1687611!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEGYnJpZGdlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QZFZsSWRsOVJSUkFC4AEA-gEECAAQDA!16s%2Fg%2F11fmq00jh8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bendungan+Gayam/@-7.8267234,109.8809671,11z/data=!4m10!1m2!2m1!1sTransportasi+Kulon+Progo!3m6!1s0x2e7afb9395ce38f5:0xdd94a984c6080fe8!8m2!3d-7.8069894!4d110.1687611!15sChhUcmFuc3BvcnRhc2kgS3Vsb24gUHJvZ29aGiIYdHJhbnNwb3J0YXNpIGt1bG9uIHByb2dvkgEGYnJpZGdlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5QZFZsSWRsOVJSUkFC4AEA-gEECAAQDA!16s%2Fg%2F11fmq00jh8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
